--- a/BalanceSheet/CBRE_bal.xlsx
+++ b/BalanceSheet/CBRE_bal.xlsx
@@ -5374,7 +5374,7 @@
         <v>3616000000.0</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>2972000000.0</v>
+        <v>669314000.0</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1047856000.0</v>
@@ -5501,7 +5501,7 @@
         <v>4349000000.0</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>4066000000.0</v>
+        <v>1763059000.0</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1750161000.0</v>
